--- a/diagrams/Long_filepath_deliverable_list_v2.xlsx
+++ b/diagrams/Long_filepath_deliverable_list_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.tsang\Desktop\LongFilepathShorterner\diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\LongFilepathShorterner\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B492B37C-3BF1-4B99-9288-6F7B0A2EC8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7ED0B-6C39-4452-9CF2-64464B9B238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deliverable" sheetId="1" r:id="rId1"/>
@@ -926,22 +926,22 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
@@ -993,7 +993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>52</v>
       </c>
@@ -1017,12 +1017,12 @@
         <f t="shared" ref="G3:G9" si="1">F3/8</f>
         <v>0</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>26</v>
+      <c r="H3" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>55</v>
       </c>
@@ -1046,12 +1046,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>26</v>
+      <c r="H4" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>58</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>62</v>
       </c>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>64</v>
       </c>
@@ -1135,12 +1135,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>20</v>
+      <c r="H7" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>66</v>
       </c>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>68</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>70</v>
       </c>
@@ -1219,24 +1219,24 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -1259,15 +1259,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="299.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="299.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1405,18 +1405,18 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33">
         <v>45320</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33">
         <v>45321</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C3" s="35"/>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
         <v>45322</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C4" s="35"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33">
         <v>45323</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C5" s="35"/>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>45324</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C6" s="35"/>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <v>45325</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C7" s="35"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33">
         <v>45326</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C8" s="35"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>45327</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>45328</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>45329</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C11" s="38"/>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>45330</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C12" s="35"/>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33">
         <v>45331</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C13" s="35"/>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33">
         <v>45332</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C14" s="35"/>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>45333</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="C15" s="35"/>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>45334</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>45335</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C17" s="35"/>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>45336</v>
       </c>
@@ -1586,21 +1586,21 @@
       </c>
       <c r="C18" s="35"/>
     </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>45337</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
     </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33">
         <v>45338</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="35"/>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33">
         <v>45339</v>
       </c>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C21" s="35"/>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33">
         <v>45340</v>
       </c>
@@ -1618,19 +1618,19 @@
       </c>
       <c r="C22" s="35"/>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
   </sheetData>

--- a/diagrams/Long_filepath_deliverable_list_v2.xlsx
+++ b/diagrams/Long_filepath_deliverable_list_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\LongFilepathShorterner\diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.tsang\Desktop\LongFilepathShorterner\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7ED0B-6C39-4452-9CF2-64464B9B238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF48B28-5579-4AB1-8E20-7C3C1E90D442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deliverable" sheetId="1" r:id="rId1"/>
@@ -926,22 +926,22 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
@@ -993,7 +993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>52</v>
       </c>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>55</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>58</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="15" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>62</v>
       </c>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>64</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>66</v>
       </c>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>68</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>70</v>
       </c>
@@ -1219,24 +1219,24 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="28"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -1259,15 +1259,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="299.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="299.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1405,18 +1405,18 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
         <v>45320</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>45321</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C3" s="35"/>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>45322</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C4" s="35"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>45323</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C5" s="35"/>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>45324</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C6" s="35"/>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>45325</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C7" s="35"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>45326</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C8" s="35"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>45327</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>45328</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>45329</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C11" s="38"/>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>45330</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C12" s="35"/>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>45331</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C13" s="35"/>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>45332</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C14" s="35"/>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>45333</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="C15" s="35"/>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>45334</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>45335</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C17" s="35"/>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33">
         <v>45336</v>
       </c>
@@ -1586,21 +1586,21 @@
       </c>
       <c r="C18" s="35"/>
     </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33">
         <v>45337</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
     </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="33">
         <v>45338</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="35"/>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
         <v>45339</v>
       </c>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C21" s="35"/>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33">
         <v>45340</v>
       </c>
@@ -1618,19 +1618,19 @@
       </c>
       <c r="C22" s="35"/>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
     </row>
   </sheetData>
